--- a/documents/TSAUTOMATIONSAMPLE.xlsx
+++ b/documents/TSAUTOMATIONSAMPLE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NidSample" sheetId="1" state="visible" r:id="rId2"/>
@@ -153,7 +153,7 @@
     <t xml:space="preserve">E-Pan</t>
   </si>
   <si>
-    <t xml:space="preserve">/home/rohit.singh/git/repository1/truth_screen/documents/Multiple_ocr/PAN/companypan-converted.pdf</t>
+    <t xml:space="preserve">/home/rohit.singh/git/repository1/truth_screen/documents/Multiple_ocr/PAN/VF E-PAN (1).pdf</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
@@ -456,7 +456,7 @@
     <t xml:space="preserve">cowin Link Generate</t>
   </si>
   <si>
-    <t xml:space="preserve">/home/rohit.singh/Downloads/cowinlink.csv</t>
+    <t xml:space="preserve">/home/rohit.singh/Downloads/cowin_links (1).csv</t>
   </si>
   <si>
     <t xml:space="preserve">PEP search</t>
@@ -1719,10 +1719,10 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.62"/>
@@ -1998,10 +1998,10 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.11"/>
@@ -2113,11 +2113,11 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="34.59"/>
@@ -2557,10 +2557,10 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.09"/>
@@ -2667,11 +2667,11 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="8.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="32" width="31.28"/>
@@ -2907,7 +2907,7 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.34"/>
@@ -3068,7 +3068,7 @@
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.6"/>
@@ -3390,7 +3390,7 @@
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.28"/>
@@ -3495,7 +3495,7 @@
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="9.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.9"/>

--- a/documents/TSAUTOMATIONSAMPLE.xlsx
+++ b/documents/TSAUTOMATIONSAMPLE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="NidSample" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="408">
   <si>
     <t xml:space="preserve">S.No</t>
   </si>
@@ -243,121 +243,124 @@
     <t xml:space="preserve">DL04A0000093</t>
   </si>
   <si>
+    <t xml:space="preserve">PAN Director</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUOPP8919E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2417503832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSTIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06AAJCS9091D1Z4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industry Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U72900DL2016PTC291698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAN Using GST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22AABCT3518Q1Z6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tata steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Know Your GSTIN- PANINDIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AADCB2230M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSTIN Tax Payer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18AABCT3518Q1ZV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GST Return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06AAGCA7946Q1ZY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acs_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esic Employer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authbridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haryana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gurgaon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit Rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reliance Jio Infocomm Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fssai No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10113013000183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22718746000156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street Vendor Verification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k.mandakini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kalaya baba late</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprehensive CGST </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06AAHCA4013B1ZG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDYAM Registration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDYAM-UP-02-0002927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Udyog Aadhar using Phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MH27E0016828</t>
+  </si>
+  <si>
     <t xml:space="preserve">zzzz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAN Director</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUOPP8919E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2417503832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSTIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06AAJCS9091D1Z4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industry Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U72900DL2016PTC291698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAN Using GST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22AABCT3518Q1Z6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Company Search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Authbridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Know Your GSTIN- PANINDIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AADCB2230M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSTIN Tax Payer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18AABCT3518Q1ZV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GST Return</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06AAGCA7946Q1ZY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acs_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esic Employer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haryana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gurgaon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credit Rating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reliance Jio Infocomm Limited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fssai No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10113013000183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22718746000156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Street Vendor Verification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GHMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k.mandakini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kalaya baba late</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comprehensive CGST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06AAHCA4013B1ZG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UDYAM Registration </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UDYAM-UP-02-0002927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Udyog Aadhar using Phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MH27E0016828</t>
   </si>
   <si>
     <t xml:space="preserve">GSTIN View and Track Return</t>
@@ -1719,10 +1722,10 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.62"/>
@@ -1774,7 +1777,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="9" t="n">
-        <v>7205140934</v>
+        <v>7205140931</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="11"/>
@@ -2001,7 +2004,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.11"/>
@@ -2114,10 +2117,10 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="34.59"/>
@@ -2244,9 +2247,7 @@
       <c r="C8" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="D8" s="22"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
     </row>
@@ -2255,10 +2256,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>72</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>73</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="21"/>
@@ -2269,7 +2270,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="23" t="n">
         <v>6925979982</v>
@@ -2283,10 +2284,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>76</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="21"/>
@@ -2297,10 +2298,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>77</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>78</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="21"/>
@@ -2311,10 +2312,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>79</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>80</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="21"/>
@@ -2325,10 +2326,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>81</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>82</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="21"/>
@@ -2339,10 +2340,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>83</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>84</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="21"/>
@@ -2353,10 +2354,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>85</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>86</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="21"/>
@@ -2367,10 +2368,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>87</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>88</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="21"/>
@@ -2381,13 +2382,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="D18" s="22" t="s">
         <v>90</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>91</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
@@ -2397,10 +2398,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>92</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>84</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>93</v>
@@ -2507,7 +2508,7 @@
         <v>9321875052</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2515,16 +2516,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>110</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2532,10 +2533,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2560,7 +2561,7 @@
       <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.09"/>
@@ -2583,10 +2584,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2594,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C3" s="28" t="n">
         <v>517540</v>
@@ -2605,7 +2606,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C4" s="31" t="n">
         <v>3608</v>
@@ -2616,10 +2617,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2627,10 +2628,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2638,10 +2639,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>122</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2667,11 +2668,11 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="8.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="32" width="31.28"/>
@@ -2696,7 +2697,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2" s="35" t="n">
         <v>9650699735</v>
@@ -2707,10 +2708,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2718,10 +2719,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2729,10 +2730,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2740,10 +2741,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2751,10 +2752,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2762,10 +2763,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2773,13 +2774,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2787,10 +2788,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2798,13 +2799,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2812,10 +2813,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2823,10 +2824,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2834,10 +2835,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2845,16 +2846,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2862,10 +2863,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2873,10 +2874,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2907,7 +2908,7 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.34"/>
@@ -2930,10 +2931,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2941,10 +2942,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2952,10 +2953,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2963,10 +2964,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2974,10 +2975,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2985,10 +2986,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2996,10 +2997,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3007,10 +3008,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3018,10 +3019,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3029,10 +3030,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3040,10 +3041,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3064,11 +3065,11 @@
   </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.6"/>
@@ -3098,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>10</v>
@@ -3113,10 +3114,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -3128,7 +3129,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C4" s="13" t="n">
         <v>9015160439</v>
@@ -3143,10 +3144,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -3158,10 +3159,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D6" s="48"/>
       <c r="E6" s="48"/>
@@ -3173,13 +3174,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C7" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E7" s="47" t="n">
         <v>9015160439</v>
@@ -3196,10 +3197,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -3211,13 +3212,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E9" s="50" t="n">
         <v>42947</v>
@@ -3232,10 +3233,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D10" s="50" t="n">
         <v>43831</v>
@@ -3251,13 +3252,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -3268,13 +3269,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3282,10 +3283,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3293,16 +3294,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>198</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3310,16 +3311,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E15" s="54" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3327,13 +3328,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E16" s="55" t="n">
         <v>28908</v>
@@ -3344,13 +3345,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3358,10 +3359,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3390,7 +3391,7 @@
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.28"/>
@@ -3414,10 +3415,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3425,10 +3426,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3436,16 +3437,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3453,10 +3454,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3464,13 +3465,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3495,7 +3496,7 @@
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="9.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.9"/>
@@ -3507,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3518,10 +3519,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3532,7 +3533,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3540,10 +3541,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3551,10 +3552,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3562,10 +3563,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3573,10 +3574,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3584,10 +3585,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3595,10 +3596,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3606,10 +3607,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3617,10 +3618,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3628,10 +3629,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3639,10 +3640,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3650,10 +3651,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3661,10 +3662,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3672,10 +3673,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3683,10 +3684,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3694,10 +3695,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3705,10 +3706,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3716,10 +3717,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3727,10 +3728,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3738,10 +3739,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3749,10 +3750,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3760,10 +3761,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3771,10 +3772,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3782,10 +3783,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3793,10 +3794,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="58" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3807,7 +3808,7 @@
         <v>58</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3815,10 +3816,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="58" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3826,10 +3827,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="58" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3840,7 +3841,7 @@
         <v>67</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3848,10 +3849,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="58" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C32" s="58" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3859,10 +3860,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3870,10 +3871,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3881,10 +3882,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="58" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3892,10 +3893,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3903,10 +3904,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="58" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C37" s="58" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3914,10 +3915,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" s="58" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3925,10 +3926,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="58" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C39" s="58" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3936,10 +3937,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="58" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C40" s="58" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3947,10 +3948,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="58" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C41" s="58" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3958,10 +3959,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="58" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C42" s="58" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3972,7 +3973,7 @@
         <v>95</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3980,10 +3981,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="58" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C44" s="58" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3991,10 +3992,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="58" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C45" s="58" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4002,10 +4003,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="58" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C46" s="58" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4013,10 +4014,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="58" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C47" s="58" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4024,10 +4025,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C48" s="58" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4035,10 +4036,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="58" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C49" s="58" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4046,10 +4047,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="58" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C50" s="58" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4057,10 +4058,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="58" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C51" s="58" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4068,10 +4069,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="58" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C52" s="58" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4079,10 +4080,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="58" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C53" s="58" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4090,10 +4091,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="58" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C54" s="58" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4101,10 +4102,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="58" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C55" s="58" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4112,10 +4113,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="58" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C56" s="58" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4123,10 +4124,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="58" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C57" s="58" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4134,10 +4135,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="58" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C58" s="58" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4145,10 +4146,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="58" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C59" s="58" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4156,10 +4157,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="58" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C60" s="58" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4167,10 +4168,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="58" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C61" s="58" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4178,10 +4179,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="58" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C62" s="58" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4189,10 +4190,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="58" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C63" s="58" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4200,10 +4201,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="58" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C64" s="58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4211,10 +4212,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="58" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C65" s="58" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4222,10 +4223,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="58" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C66" s="58" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4233,10 +4234,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="58" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C67" s="58" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4244,10 +4245,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="58" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C68" s="58" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4255,10 +4256,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="58" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C69" s="58" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4266,10 +4267,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="58" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C70" s="58" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4277,10 +4278,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="58" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C71" s="58" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4288,10 +4289,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="58" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C72" s="58" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4299,10 +4300,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="58" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C73" s="58" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4310,10 +4311,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="58" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C74" s="58" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4321,10 +4322,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="58" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C75" s="58" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4332,10 +4333,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="58" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C76" s="58" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4343,10 +4344,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="58" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C77" s="58" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4354,10 +4355,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="58" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C78" s="58" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4365,10 +4366,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="58" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C79" s="58" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4376,10 +4377,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="58" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C80" s="58" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4387,10 +4388,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="58" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C81" s="58" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4398,10 +4399,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="58" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C82" s="58" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4409,10 +4410,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="58" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C83" s="58" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4420,10 +4421,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="58" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C84" s="58" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4431,10 +4432,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="58" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C85" s="58" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4442,10 +4443,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="58" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C86" s="58" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4453,10 +4454,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="58" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C87" s="58" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4464,10 +4465,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="58" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C88" s="58" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4475,10 +4476,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="58" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C89" s="58" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4486,10 +4487,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="58" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C90" s="58" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4497,10 +4498,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="58" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C91" s="58" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4508,10 +4509,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="58" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C92" s="58" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4519,10 +4520,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="58" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C93" s="58" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4530,10 +4531,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="58" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C94" s="58" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4541,10 +4542,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="58" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C95" s="58" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4552,10 +4553,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="58" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C96" s="58" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4563,10 +4564,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="58" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C97" s="58" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4574,10 +4575,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="58" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C98" s="58" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
